--- a/words/5.16.xlsx
+++ b/words/5.16.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>concept</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,158 @@
   </si>
   <si>
     <t xml:space="preserve">           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automotive-assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crisis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muscle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musclar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look up to    ~look down to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj, n, v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the presence of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genealogist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passionate  热情的；激情的；易怒的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track down 跟踪追捕，调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moral code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholesale 批发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sluggish 缓慢的，懒惰的，迟钝的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retailer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upsetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disturbance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortune 命运，财产，运气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criterion 标准，准则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,7 +900,9 @@
         <v>31</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -756,9 +910,13 @@
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
@@ -766,32 +924,43 @@
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
@@ -801,22 +970,34 @@
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
@@ -826,24 +1007,36 @@
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
@@ -851,42 +1044,59 @@
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
@@ -896,17 +1106,23 @@
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
@@ -916,12 +1132,18 @@
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
@@ -931,12 +1153,16 @@
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
@@ -1424,11 +1650,6 @@
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="2"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/words/5.16.xlsx
+++ b/words/5.16.xlsx
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,7 +698,7 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
@@ -759,6 +759,7 @@
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
@@ -947,6 +948,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
@@ -1072,6 +1074,7 @@
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
